--- a/Excel Data/amendmentLockerJoint.xlsx
+++ b/Excel Data/amendmentLockerJoint.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="amendmentLockerJoint" sheetId="1" r:id="rId1"/>
+    <sheet name="UAT2 Regression" sheetId="2" r:id="rId1"/>
+    <sheet name="amendmentLockerJoint" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>value:1:1:1</t>
   </si>
@@ -43,6 +44,9 @@
   </si>
   <si>
     <t>OR.0006.0031</t>
+  </si>
+  <si>
+    <t>OR.0003.0031</t>
   </si>
 </sst>
 </file>
@@ -394,6 +398,62 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1007515120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2">

--- a/Excel Data/amendmentLockerJoint.xlsx
+++ b/Excel Data/amendmentLockerJoint.xlsx
@@ -46,7 +46,7 @@
     <t>OR.0006.0031</t>
   </si>
   <si>
-    <t>OR.0003.0031</t>
+    <t>OR.0010.0031</t>
   </si>
 </sst>
 </file>

--- a/Excel Data/amendmentLockerJoint.xlsx
+++ b/Excel Data/amendmentLockerJoint.xlsx
@@ -46,7 +46,7 @@
     <t>OR.0006.0031</t>
   </si>
   <si>
-    <t>OR.0010.0031</t>
+    <t>OR.0038.0031</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="A1:XFD1048576"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
